--- a/microservice.mess/templates/ChartDB_No1.xlsx
+++ b/microservice.mess/templates/ChartDB_No1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apollo\Code\Datahub.mess\microservice.mess\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717EE4B-74A4-4515-A1AC-AB88A5B5D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E201FA-9343-424C-88EC-14FC10C77947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B041BE83-FFFB-4F16-A3C6-AF8415044038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B041BE83-FFFB-4F16-A3C6-AF8415044038}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetChart" sheetId="1" r:id="rId1"/>
     <sheet name="SheetData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Chủ đề</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Tội phạm mạng</t>
-  </si>
-  <si>
-    <t>Ins</t>
   </si>
   <si>
     <t>An toàn an ninh</t>
@@ -371,76 +368,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>SheetData!$A$1:$A$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>SheetData!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Trật tự xã hội</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Dư luận quan tâm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tội phạm mạng</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>SheetData!$E$1:$E$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>SheetData!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B8CD-4C63-B562-887AA0577FC8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -452,7 +379,77 @@
         <c:gapWidth val="150"/>
         <c:axId val="76209743"/>
         <c:axId val="76210223"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln w="19050">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>SheetData!$A$1:$A$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>SheetData!$A$2:$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Trật tự xã hội</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Dư luận quan tâm</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tội phạm mạng</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>SheetData!#REF!</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>SheetData!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B8CD-4C63-B562-887AA0577FC8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="76209743"/>
@@ -730,9 +727,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SheetData!$B$1:$E$1</c:f>
+              <c:f>SheetData!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Facebook</c:v>
                 </c:pt>
@@ -742,18 +739,15 @@
                 <c:pt idx="2">
                   <c:v>Zalo</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ins</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SheetData!$B$2:$E$2</c:f>
+              <c:f>SheetData!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -761,9 +755,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -2431,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE793F-4F81-46CC-809C-67F4EA1EDE95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52665EF8-968A-4427-97E0-0A8B11CFF6A7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2457,7 @@
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2479,11 +2470,8 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2496,11 +2484,8 @@
       <c r="D2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2513,11 +2498,8 @@
       <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" s="3">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2530,13 +2512,10 @@
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -2547,9 +2526,6 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
